--- a/data/trans_camb/P16A01-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.415995561149416</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.980128675512594</v>
+        <v>3.980128675512596</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.843859800566797</v>
@@ -664,7 +664,7 @@
         <v>1.411820713012181</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.732240896644477</v>
+        <v>1.732240896644478</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.897886036212812</v>
+        <v>-1.787746597429469</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.420221088335982</v>
+        <v>-4.08955333858135</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.892484423549202</v>
+        <v>-5.115722898813394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.314602935685832</v>
+        <v>1.491737532458511</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.007245121300096</v>
+        <v>1.012532105478878</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.32075354158611</v>
+        <v>1.147612518930264</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9483264275886449</v>
+        <v>0.9485601172740891</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.3364670988898614</v>
+        <v>-0.3241683834064167</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2893119013651647</v>
+        <v>-0.3961562697749826</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.161171096117013</v>
+        <v>4.521778495548732</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9936808381755199</v>
+        <v>1.326471163166006</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.096113014165315</v>
+        <v>2.25905282484947</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.215948387471126</v>
+        <v>6.178585124757273</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.528472510141893</v>
+        <v>5.720005174656113</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.757591175426119</v>
+        <v>6.927520671785843</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.763501165504258</v>
+        <v>4.659301962779382</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.106885449662459</v>
+        <v>3.216182477184166</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.042376189359525</v>
+        <v>3.92399708545103</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.5915315687610492</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6892197946839842</v>
+        <v>0.6892197946839845</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4053935255997055</v>
@@ -769,7 +769,7 @@
         <v>0.2012556934939714</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2469317383855348</v>
+        <v>0.246931738385535</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1776090334771452</v>
+        <v>-0.1644946897668298</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3944399847428207</v>
+        <v>-0.3864638275648637</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4782621845167753</v>
+        <v>-0.4701210870464473</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.202568010251797</v>
+        <v>0.1843264256286702</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1295804111228216</v>
+        <v>0.1288493414280436</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1862159127904531</v>
+        <v>0.1598622519537712</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.116744843751442</v>
+        <v>0.1117188945291987</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0385193863097389</v>
+        <v>-0.0423734876935396</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.03743308284616368</v>
+        <v>-0.05679714182267777</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5748571084540215</v>
+        <v>0.6625746860695303</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1419343572200242</v>
+        <v>0.2026351301458397</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3060008250756607</v>
+        <v>0.3115162978372745</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.32998475812806</v>
+        <v>1.270175594331201</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.192537816301515</v>
+        <v>1.235797000476528</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.416315702541159</v>
+        <v>1.424557916465026</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7717687533605113</v>
+        <v>0.7471245993074129</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5148748811782539</v>
+        <v>0.5249324325636215</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6594804256462046</v>
+        <v>0.6113917474694538</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.05660204195038904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.9741576255118942</v>
+        <v>-0.9741576255118934</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.06404320105441175</v>
@@ -869,7 +869,7 @@
         <v>0.08047621808021793</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2623982417355758</v>
+        <v>0.2623982417355772</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.558954317932672</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8614112466689684</v>
+        <v>0.8148085905935484</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.107677112769185</v>
+        <v>-2.173505270892348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.108083527434676</v>
+        <v>-3.380094533678293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.271599530063423</v>
+        <v>-2.285130112415135</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.068163359804339</v>
+        <v>-2.43434483756667</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.993255866638154</v>
+        <v>-1.92287022672109</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09182674530426968</v>
+        <v>-0.02370599570953372</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.536205122236213</v>
+        <v>-1.478035246444215</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.93064449994706</v>
+        <v>-1.854168672848336</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.738118207550698</v>
+        <v>5.985508764429948</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.627073264346113</v>
+        <v>2.401048701956531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.240653936673096</v>
+        <v>1.347778128727675</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.204769644940039</v>
+        <v>2.257565041991725</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.567569613422048</v>
+        <v>2.318304101643792</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.416362718800309</v>
+        <v>2.362360547732246</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.34810687075761</v>
+        <v>3.365378343522186</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.603606960989391</v>
+        <v>1.622399271983508</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.245606208033572</v>
+        <v>1.170961782079416</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.008102414428670031</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1394477748287711</v>
+        <v>-0.139447774828771</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.008986020953822045</v>
@@ -974,7 +974,7 @@
         <v>0.01129176821344058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03681758656127505</v>
+        <v>0.03681758656127525</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2209486992698984</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.09432719699101291</v>
+        <v>0.08098708319713162</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2637652667805551</v>
+        <v>-0.2799879406046952</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3910329880670557</v>
+        <v>-0.4113372823798558</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2728312394123966</v>
+        <v>-0.2874294380124096</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2581598198094507</v>
+        <v>-0.2934473202832283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2342187328695684</v>
+        <v>-0.2197139628079186</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009953500055171283</v>
+        <v>-0.002435634420474185</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1957910888442366</v>
+        <v>-0.1927958153332804</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2451854338305538</v>
+        <v>-0.2303727244137014</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9220754072234173</v>
+        <v>0.9936199230208809</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4411781901009043</v>
+        <v>0.4094840761024517</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2052457500554518</v>
+        <v>0.2348216741039574</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3621649069412171</v>
+        <v>0.3896607660890133</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4518589402775628</v>
+        <v>0.4023335602030088</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3909152794915751</v>
+        <v>0.4025579284219127</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5256221157650861</v>
+        <v>0.5534848004556393</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2526611262858973</v>
+        <v>0.2596821283860816</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2070544299560114</v>
+        <v>0.1891666418005944</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>3.386335499134043</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.324524334002119</v>
+        <v>1.32452433400212</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.758454086725425</v>
+        <v>-0.6294568610126943</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9909703729945438</v>
+        <v>0.9611506426582364</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.225680433184729</v>
+        <v>-1.463900652054159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.185416274574092</v>
+        <v>1.02997931383776</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7256667038346764</v>
+        <v>0.8952873736618537</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.04629525990497201</v>
+        <v>-0.04224538993061779</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8034703535992629</v>
+        <v>0.7978678017867981</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.498005280220903</v>
+        <v>1.463171200390053</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.1350393697211624</v>
+        <v>-0.1828999395288469</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.209401204314997</v>
+        <v>4.287879636206042</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.330859630128853</v>
+        <v>5.956455646393639</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.33622119839762</v>
+        <v>3.297727710367282</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.868889469868408</v>
+        <v>5.866500708672358</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.761084088503147</v>
+        <v>5.79741062376539</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.795446036110038</v>
+        <v>3.736251736454324</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.320054304844064</v>
+        <v>4.183744259627704</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.989656312848653</v>
+        <v>5.16726962979587</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.919307696738008</v>
+        <v>2.918299582666121</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.6234945709407719</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2438723899449554</v>
+        <v>0.2438723899449557</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1122922150060642</v>
+        <v>-0.09893026532337297</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1370691343517264</v>
+        <v>0.1417246497318453</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1910835774221949</v>
+        <v>-0.2227985691280005</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1915761495688519</v>
+        <v>0.1717039079992055</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1125057698270352</v>
+        <v>0.1439758208748123</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01501103204884974</v>
+        <v>-0.01054050945266739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1260588651092654</v>
+        <v>0.1245954465897713</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2432699997344026</v>
+        <v>0.2238339646220253</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.0231038535481169</v>
+        <v>-0.03182584723675575</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8445701592184862</v>
+        <v>0.9137861971636811</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.267434346922273</v>
+        <v>1.275415295500402</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.643776540397295</v>
+        <v>0.690038126751046</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.521002510285179</v>
+        <v>1.507147910990852</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.389562201950384</v>
+        <v>1.459687428201317</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9586093325095684</v>
+        <v>1.020985785352061</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8946172154620298</v>
+        <v>0.8814515078098246</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.035575143937601</v>
+        <v>1.065042055966573</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6381897933134374</v>
+        <v>0.6357962040498829</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.22948776239375</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.5630193958351779</v>
+        <v>0.5630193958351792</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.047086876355011</v>
+        <v>-0.6612664330598191</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.657436895270516</v>
+        <v>-3.72485786646687</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.506375948254408</v>
+        <v>-1.497986471899649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.765838019293037</v>
+        <v>-4.946071167049684</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.177393103049289</v>
+        <v>-4.455588548740057</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.834078763070315</v>
+        <v>-4.901619382598322</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.483275133907341</v>
+        <v>-1.672952465305462</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.072123767021499</v>
+        <v>-2.912638199296544</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.974987430454002</v>
+        <v>-1.858238615261124</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.673778150644026</v>
+        <v>6.741952310417518</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.149419776597999</v>
+        <v>2.865539604762743</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.181312423186159</v>
+        <v>4.963529747094649</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.488001276422503</v>
+        <v>3.429538171354654</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.005287010776676</v>
+        <v>4.013084108494646</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.902826766773411</v>
+        <v>2.042954065176616</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.910906287978724</v>
+        <v>3.889259903535248</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.258801785470248</v>
+        <v>2.143851023570738</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.718220957726618</v>
+        <v>2.610617426833668</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.02954383045531311</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.07248207660444875</v>
+        <v>0.07248207660444893</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1327314153998462</v>
+        <v>-0.08387028493399799</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4298763025443967</v>
+        <v>-0.4364082510119653</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1924970436151736</v>
+        <v>-0.1642218347138941</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4407267786234388</v>
+        <v>-0.4372020536353372</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3768475042935462</v>
+        <v>-0.4086691603284923</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4144799492767266</v>
+        <v>-0.4165744143716414</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.168019066145599</v>
+        <v>-0.1821785178527991</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.333378547938465</v>
+        <v>-0.3258790723931745</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2035607445500781</v>
+        <v>-0.19720498638919</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.302533511879527</v>
+        <v>1.337339268774878</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6448795658442715</v>
+        <v>0.5462165290348494</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9908556671078947</v>
+        <v>0.9414303491712389</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5165329981746772</v>
+        <v>0.5027504407766668</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.651882494294407</v>
+        <v>0.6308509379892059</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3055654829300211</v>
+        <v>0.3172279052262705</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6074973010179104</v>
+        <v>0.630527016539419</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.36164570567944</v>
+        <v>0.3376309351320208</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4382552568129023</v>
+        <v>0.4019187608007491</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>1.421007911847681</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.8723908786413603</v>
+        <v>0.8723908786413617</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.211295812152862</v>
+        <v>1.107863148673271</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5427102690281227</v>
+        <v>-0.55009741657871</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.997922987299496</v>
+        <v>-1.022090898486834</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8114875711609799</v>
+        <v>0.7616858154750039</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8076647023876201</v>
+        <v>0.7831238089511109</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2022572273963401</v>
+        <v>0.253099077937219</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.419892984517165</v>
+        <v>1.354631086591586</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5003021185440178</v>
+        <v>0.5207770806737672</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.005399835473954192</v>
+        <v>0.05279648041245678</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.851453807404295</v>
+        <v>3.921781160991829</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.019607860044112</v>
+        <v>2.071177206557053</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.637248678165208</v>
+        <v>1.741634833270965</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.391469341382943</v>
+        <v>3.351026813886116</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.344778404565162</v>
+        <v>3.339390279510886</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.526399231652255</v>
+        <v>2.575467508077581</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.19540180829372</v>
+        <v>3.16447796641112</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.313277644240677</v>
+        <v>2.313636344382795</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.857392016875388</v>
+        <v>1.798653484489163</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.2150671342083819</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1320348779303919</v>
+        <v>0.1320348779303921</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1608133648552072</v>
+        <v>0.1465303104555822</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07006522464566312</v>
+        <v>-0.07500252586469711</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1304476517859058</v>
+        <v>-0.1331113141051615</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1188528970422091</v>
+        <v>0.1047179561180151</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1173063322579528</v>
+        <v>0.1130252305936666</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02877477713564502</v>
+        <v>0.03638074228731947</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2014374015370583</v>
+        <v>0.186753059000342</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07178449904920932</v>
+        <v>0.07443959780119871</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.000197547401701772</v>
+        <v>0.007371729762346964</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6092732746388181</v>
+        <v>0.6184891689067518</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3213146907821518</v>
+        <v>0.3199175277968285</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2612442592417979</v>
+        <v>0.2700650026922555</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6141989419364812</v>
+        <v>0.5968877782456218</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5957729059322419</v>
+        <v>0.5984548877005211</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4398977066033875</v>
+        <v>0.4672326231724082</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5247117350844372</v>
+        <v>0.5116536743531195</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3786882519851244</v>
+        <v>0.3788960588412364</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2913469547429611</v>
+        <v>0.294711753507452</v>
       </c>
     </row>
     <row r="34">
